--- a/sheets/input/Pegan_Cove_South_Pond edits 181101a.xlsx
+++ b/sheets/input/Pegan_Cove_South_Pond edits 181101a.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10120" yWindow="0" windowWidth="16760" windowHeight="15500" tabRatio="790" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="1420" yWindow="0" windowWidth="36780" windowHeight="23500" tabRatio="790" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sample_and_Time_Input" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="167">
   <si>
     <t>Number of Hyper-cube bins</t>
   </si>
@@ -240,12 +240,6 @@
   </si>
   <si>
     <t>Fraction of Organic Carbon Content in Sediment (only if a organism eats sediment)</t>
-  </si>
-  <si>
-    <t>beta_lip (defualt = 1)</t>
-  </si>
-  <si>
-    <t>beta_prot (defualt = .35)</t>
   </si>
   <si>
     <t>0,10</t>
@@ -749,6 +743,21 @@
       </rPr>
       <t>/L)</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> Beta Lipid Omn (default = 1)</t>
+  </si>
+  <si>
+    <t>Beta Non-lipid OM (defualt = 0.035)</t>
+  </si>
+  <si>
+    <t>Beta Lipid digesta (default = 1)</t>
+  </si>
+  <si>
+    <t>Beta Sediment OC (default = .35)</t>
+  </si>
+  <si>
+    <t>Beta  Non-lipid digesta  (defualt = .035)</t>
   </si>
 </sst>
 </file>
@@ -1142,7 +1151,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="559">
+  <cellStyleXfs count="565">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1702,8 +1711,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1747,7 +1762,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1762,10 +1776,6 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1841,20 +1851,22 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="559">
+  <cellStyles count="565">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2134,6 +2146,9 @@
     <cellStyle name="Followed Hyperlink" xfId="554" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="556" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="558" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="560" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="562" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="564" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2413,6 +2428,9 @@
     <cellStyle name="Hyperlink" xfId="553" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="555" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="557" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="559" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="561" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="563" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3723,16 +3741,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3741,8 +3759,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12573000" y="4089400"/>
-          <a:ext cx="7454900" cy="3683000"/>
+          <a:off x="21742400" y="533400"/>
+          <a:ext cx="7658100" cy="3683000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5313,20 +5331,20 @@
         <v>59</v>
       </c>
       <c r="B1" s="4"/>
-      <c r="C1" s="51"/>
+      <c r="C1" s="50"/>
       <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="84">
-        <v>1</v>
-      </c>
-      <c r="C2" s="58" t="s">
+      <c r="B2" s="81">
+        <v>1</v>
+      </c>
+      <c r="C2" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="87">
+      <c r="D2" s="84">
         <f>B2*B3</f>
         <v>1</v>
       </c>
@@ -5335,7 +5353,7 @@
       <c r="A3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="84">
+      <c r="B3" s="81">
         <v>1</v>
       </c>
       <c r="C3" s="2"/>
@@ -5345,55 +5363,55 @@
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="84">
+      <c r="B4" s="81">
         <v>1</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="85"/>
+      <c r="A5" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="82"/>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="86" t="s">
-        <v>155</v>
+      <c r="B6" s="83" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="86" t="s">
-        <v>156</v>
+      <c r="B7" s="83" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="84" t="s">
-        <v>139</v>
+      <c r="B8" s="81" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="85"/>
+      <c r="B9" s="82"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="84" t="s">
-        <v>153</v>
+      <c r="B10" s="81" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -5412,7 +5430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
@@ -5428,448 +5446,454 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="88" t="s">
+      <c r="B1" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="88" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="51"/>
+      <c r="C1" s="85" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="50"/>
       <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="95" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" s="90"/>
+      <c r="B2" s="92" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="87"/>
       <c r="D2" s="2"/>
       <c r="E2" s="26"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="91" t="s">
-        <v>157</v>
-      </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="92"/>
+      <c r="A3" s="88" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" s="93"/>
+      <c r="C3" s="89"/>
       <c r="D3" s="2"/>
       <c r="E3" s="26"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="91" t="s">
-        <v>158</v>
-      </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="90"/>
+      <c r="A4" s="88" t="s">
+        <v>156</v>
+      </c>
+      <c r="B4" s="93"/>
+      <c r="C4" s="87"/>
       <c r="D4" s="2"/>
       <c r="E4" s="26"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="93" t="s">
-        <v>159</v>
-      </c>
-      <c r="B5" s="96"/>
-      <c r="C5" s="94"/>
+      <c r="A5" s="90" t="s">
+        <v>157</v>
+      </c>
+      <c r="B5" s="93"/>
+      <c r="C5" s="91"/>
       <c r="D5" s="2"/>
       <c r="E5" s="26"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="91" t="s">
-        <v>160</v>
-      </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="90"/>
+      <c r="A6" s="88" t="s">
+        <v>158</v>
+      </c>
+      <c r="B6" s="92"/>
+      <c r="C6" s="87"/>
       <c r="D6" s="2"/>
       <c r="E6" s="26"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="91" t="s">
+      <c r="A7" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="97">
+      <c r="B7" s="94">
         <v>0.9</v>
       </c>
-      <c r="C7" s="90"/>
+      <c r="C7" s="87"/>
       <c r="D7" s="2"/>
       <c r="E7" s="26"/>
     </row>
     <row r="8" spans="1:5" ht="16">
-      <c r="A8" s="91" t="s">
-        <v>163</v>
-      </c>
-      <c r="B8" s="97">
+      <c r="A8" s="88" t="s">
+        <v>161</v>
+      </c>
+      <c r="B8" s="94">
         <v>10</v>
       </c>
-      <c r="C8" s="90"/>
+      <c r="C8" s="87"/>
       <c r="D8" s="2"/>
       <c r="E8" s="26"/>
     </row>
     <row r="9" spans="1:5" ht="16">
-      <c r="A9" s="91" t="s">
-        <v>161</v>
-      </c>
-      <c r="B9" s="97"/>
-      <c r="C9" s="90"/>
+      <c r="A9" s="88" t="s">
+        <v>159</v>
+      </c>
+      <c r="B9" s="94"/>
+      <c r="C9" s="87"/>
       <c r="D9" s="26"/>
       <c r="E9" s="26"/>
     </row>
     <row r="10" spans="1:5" ht="16">
-      <c r="A10" s="91" t="s">
-        <v>162</v>
-      </c>
-      <c r="B10" s="97"/>
-      <c r="C10" s="90"/>
+      <c r="A10" s="88" t="s">
+        <v>160</v>
+      </c>
+      <c r="B10" s="94"/>
+      <c r="C10" s="87"/>
       <c r="D10" s="2"/>
       <c r="E10" s="26"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="88" t="s">
+      <c r="A11" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="98" t="s">
+      <c r="B11" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="88" t="s">
+      <c r="C11" s="85" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="26"/>
       <c r="E11" s="26"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="89" t="s">
+      <c r="A12" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="95" t="s">
-        <v>136</v>
-      </c>
-      <c r="C12" s="90"/>
+      <c r="B12" s="92" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12" s="87"/>
       <c r="D12" s="26"/>
       <c r="E12" s="26"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="91" t="s">
+      <c r="A13" s="88" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="96"/>
-      <c r="C13" s="92"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="89"/>
       <c r="D13" s="26"/>
       <c r="E13" s="26"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="91" t="s">
+      <c r="A14" s="88" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="96"/>
-      <c r="C14" s="90"/>
+      <c r="B14" s="93"/>
+      <c r="C14" s="87"/>
       <c r="D14" s="26"/>
       <c r="E14" s="26"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="93" t="s">
+      <c r="A15" s="90" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="93"/>
+      <c r="C15" s="91"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="88" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="92"/>
+      <c r="C16" s="87"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="88" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="94">
+        <v>0.9</v>
+      </c>
+      <c r="C17" s="87"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="94"/>
+      <c r="C18" s="87"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="94"/>
+      <c r="C19" s="87"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="88" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="94"/>
+      <c r="C20" s="87"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="85" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="95" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="85" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="86" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="92" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" s="87"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="93"/>
+      <c r="C23" s="89"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="88" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="93"/>
+      <c r="C24" s="87"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="90" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="93"/>
+      <c r="C25" s="91"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="88" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="92"/>
+      <c r="C26" s="87"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="88" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="94">
+        <v>0.9</v>
+      </c>
+      <c r="C27" s="87"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="94"/>
+      <c r="C28" s="87"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="94"/>
+      <c r="C29" s="87"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="88" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="94"/>
+      <c r="C30" s="87"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="85" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="95" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="85" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="86" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="92" t="s">
+        <v>130</v>
+      </c>
+      <c r="C32" s="87"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="93"/>
+      <c r="C33" s="89"/>
+    </row>
+    <row r="34" spans="1:6" ht="17">
+      <c r="A34" s="88" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="93"/>
+      <c r="C34" s="87"/>
+      <c r="E34" s="61" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="90" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="93"/>
+      <c r="C35" s="91"/>
+      <c r="E35" s="98" t="s">
+        <v>76</v>
+      </c>
+      <c r="F35" s="98" t="s">
         <v>77</v>
       </c>
-      <c r="B15" s="96"/>
-      <c r="C15" s="94"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="91" t="s">
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="88" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="95"/>
-      <c r="C16" s="90"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="91" t="s">
+      <c r="B36" s="92"/>
+      <c r="C36" s="87"/>
+      <c r="E36" s="99"/>
+      <c r="F36" s="99"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="97">
+      <c r="B37" s="94">
         <v>0.9</v>
       </c>
-      <c r="C17" s="90"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="91" t="s">
+      <c r="C37" s="87"/>
+      <c r="E37" s="96" t="s">
+        <v>78</v>
+      </c>
+      <c r="F37" s="96" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="97"/>
-      <c r="C18" s="90"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="91" t="s">
+      <c r="B38" s="94">
+        <v>10</v>
+      </c>
+      <c r="C38" s="87"/>
+      <c r="E38" s="97"/>
+      <c r="F38" s="97"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="97"/>
-      <c r="C19" s="90"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="91" t="s">
+      <c r="B39" s="94"/>
+      <c r="C39" s="87"/>
+      <c r="E39" s="96" t="s">
+        <v>80</v>
+      </c>
+      <c r="F39" s="96" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="97"/>
-      <c r="C20" s="90"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="88" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="98" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="88" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="95" t="s">
-        <v>99</v>
-      </c>
-      <c r="C22" s="90"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="91" t="s">
-        <v>64</v>
-      </c>
-      <c r="B23" s="96"/>
-      <c r="C23" s="92"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="91" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="96"/>
-      <c r="C24" s="90"/>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="93" t="s">
-        <v>77</v>
-      </c>
-      <c r="B25" s="96"/>
-      <c r="C25" s="94"/>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="91" t="s">
-        <v>70</v>
-      </c>
-      <c r="B26" s="95"/>
-      <c r="C26" s="90"/>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="91" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27" s="97">
-        <v>0.9</v>
-      </c>
-      <c r="C27" s="90"/>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="91" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" s="97"/>
-      <c r="C28" s="90"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="91" t="s">
-        <v>66</v>
-      </c>
-      <c r="B29" s="97"/>
-      <c r="C29" s="90"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="91" t="s">
-        <v>67</v>
-      </c>
-      <c r="B30" s="97"/>
-      <c r="C30" s="90"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="88" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" s="98" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="88" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="95" t="s">
-        <v>132</v>
-      </c>
-      <c r="C32" s="90"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="91" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33" s="96"/>
-      <c r="C33" s="92"/>
-    </row>
-    <row r="34" spans="1:6" ht="17">
-      <c r="A34" s="91" t="s">
-        <v>65</v>
-      </c>
-      <c r="B34" s="96"/>
-      <c r="C34" s="90"/>
-      <c r="E34" s="64" t="s">
+      <c r="B40" s="94"/>
+      <c r="C40" s="87"/>
+      <c r="E40" s="97"/>
+      <c r="F40" s="97"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="E41" s="96" t="s">
+        <v>82</v>
+      </c>
+      <c r="F41" s="96" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="E42" s="97"/>
+      <c r="F42" s="97"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="E43" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" s="96" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="E44" s="97"/>
+      <c r="F44" s="97"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="E45" s="96" t="s">
+        <v>86</v>
+      </c>
+      <c r="F45" s="96" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="E46" s="97"/>
+      <c r="F46" s="97"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="E47" s="96" t="s">
+        <v>87</v>
+      </c>
+      <c r="F47" s="96" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="E48" s="97"/>
+      <c r="F48" s="97"/>
+    </row>
+    <row r="49" spans="5:6">
+      <c r="E49" s="96" t="s">
+        <v>89</v>
+      </c>
+      <c r="F49" s="96" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="5:6">
+      <c r="E50" s="97"/>
+      <c r="F50" s="97"/>
+    </row>
+    <row r="51" spans="5:6">
+      <c r="E51" s="62" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="53" spans="5:6" ht="28" customHeight="1">
+      <c r="E53" s="62" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="93" t="s">
-        <v>77</v>
-      </c>
-      <c r="B35" s="96"/>
-      <c r="C35" s="94"/>
-      <c r="E35" s="99" t="s">
-        <v>78</v>
-      </c>
-      <c r="F35" s="99" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="91" t="s">
-        <v>70</v>
-      </c>
-      <c r="B36" s="95"/>
-      <c r="C36" s="90"/>
-      <c r="E36" s="100"/>
-      <c r="F36" s="100"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="91" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" s="97">
-        <v>0.9</v>
-      </c>
-      <c r="C37" s="90"/>
-      <c r="E37" s="101" t="s">
-        <v>80</v>
-      </c>
-      <c r="F37" s="101" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="91" t="s">
-        <v>12</v>
-      </c>
-      <c r="B38" s="97">
-        <v>10</v>
-      </c>
-      <c r="C38" s="90"/>
-      <c r="E38" s="102"/>
-      <c r="F38" s="102"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="91" t="s">
-        <v>66</v>
-      </c>
-      <c r="B39" s="97"/>
-      <c r="C39" s="90"/>
-      <c r="E39" s="101" t="s">
-        <v>82</v>
-      </c>
-      <c r="F39" s="101" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="91" t="s">
-        <v>67</v>
-      </c>
-      <c r="B40" s="97"/>
-      <c r="C40" s="90"/>
-      <c r="E40" s="102"/>
-      <c r="F40" s="102"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="E41" s="101" t="s">
-        <v>84</v>
-      </c>
-      <c r="F41" s="101" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="E42" s="102"/>
-      <c r="F42" s="102"/>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="E43" s="101" t="s">
-        <v>86</v>
-      </c>
-      <c r="F43" s="101" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="E44" s="102"/>
-      <c r="F44" s="102"/>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="E45" s="101" t="s">
-        <v>88</v>
-      </c>
-      <c r="F45" s="101" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="E46" s="102"/>
-      <c r="F46" s="102"/>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="E47" s="101" t="s">
-        <v>89</v>
-      </c>
-      <c r="F47" s="101" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="E48" s="102"/>
-      <c r="F48" s="102"/>
-    </row>
-    <row r="49" spans="5:6">
-      <c r="E49" s="101" t="s">
-        <v>91</v>
-      </c>
-      <c r="F49" s="101" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="50" spans="5:6">
-      <c r="E50" s="102"/>
-      <c r="F50" s="102"/>
-    </row>
-    <row r="51" spans="5:6">
-      <c r="E51" s="65" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="53" spans="5:6" ht="28" customHeight="1">
-      <c r="E53" s="65" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
     <mergeCell ref="E47:E48"/>
     <mergeCell ref="F47:F48"/>
     <mergeCell ref="E49:E50"/>
@@ -5880,12 +5904,6 @@
     <mergeCell ref="F43:F44"/>
     <mergeCell ref="E45:E46"/>
     <mergeCell ref="F45:F46"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -5930,152 +5948,152 @@
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E1" s="11"/>
       <c r="F1" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G1" s="11"/>
       <c r="H1" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I1" s="11"/>
       <c r="J1" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K1" s="11"/>
       <c r="L1" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M1" s="11"/>
       <c r="N1" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O1" s="11"/>
       <c r="P1" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="Q1" s="11"/>
       <c r="R1" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="S1" s="11"/>
       <c r="T1" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="U1" s="11"/>
       <c r="V1" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="W1" s="11"/>
       <c r="X1" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Y1" s="11"/>
       <c r="Z1" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AA1" s="11"/>
       <c r="AB1" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AC1" s="11"/>
       <c r="AD1" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AE1" s="11"/>
       <c r="AF1" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AG1" s="11"/>
       <c r="AH1" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AI1" s="11"/>
       <c r="AJ1" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AK1" s="11"/>
       <c r="AL1" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AM1" s="11"/>
       <c r="AN1" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AO1" s="11"/>
       <c r="AP1" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AQ1" s="11"/>
       <c r="AR1" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AS1" s="11"/>
       <c r="AT1" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AU1" s="11"/>
       <c r="AV1" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AW1" s="11"/>
       <c r="AX1" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AY1" s="11"/>
       <c r="AZ1" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="BA1" s="11"/>
       <c r="BB1" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="BC1" s="11"/>
       <c r="BD1" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="BE1" s="11"/>
       <c r="BF1" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="BG1" s="11"/>
       <c r="BH1" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="BI1" s="11"/>
       <c r="BJ1" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="BK1" s="11"/>
       <c r="BL1" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="BM1" s="11"/>
       <c r="BN1" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="BO1" s="11"/>
       <c r="BP1" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="BQ1" s="11"/>
       <c r="BR1" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="BS1" s="11"/>
       <c r="BT1" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="BU1" s="11"/>
       <c r="BV1" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="BW1" s="11"/>
     </row>
     <row r="2" spans="1:75">
-      <c r="A2" s="67"/>
+      <c r="A2" s="64"/>
       <c r="B2" s="21" t="s">
         <v>15</v>
       </c>
@@ -6300,8 +6318,8 @@
       </c>
     </row>
     <row r="3" spans="1:75">
-      <c r="A3" s="66" t="s">
-        <v>100</v>
+      <c r="A3" s="63" t="s">
+        <v>98</v>
       </c>
       <c r="B3" s="13">
         <v>8</v>
@@ -6453,7 +6471,7 @@
       <c r="BW3" s="14"/>
     </row>
     <row r="4" spans="1:75">
-      <c r="A4" s="67"/>
+      <c r="A4" s="64"/>
       <c r="B4" s="21" t="s">
         <v>15</v>
       </c>
@@ -6678,8 +6696,8 @@
       </c>
     </row>
     <row r="5" spans="1:75">
-      <c r="A5" s="66" t="s">
-        <v>140</v>
+      <c r="A5" s="63" t="s">
+        <v>138</v>
       </c>
       <c r="B5" s="13">
         <v>8</v>
@@ -6831,760 +6849,760 @@
       <c r="BW5" s="14"/>
     </row>
     <row r="6" spans="1:75">
-      <c r="A6" s="73"/>
-      <c r="B6" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="75" t="s">
+      <c r="A6" s="70"/>
+      <c r="B6" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="72" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="75" t="s">
+      <c r="E6" s="72" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="75" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="75" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" s="75" t="s">
+      <c r="G6" s="72" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="72" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="72" t="s">
         <v>9</v>
       </c>
       <c r="L6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="M6" s="75" t="s">
+      <c r="M6" s="72" t="s">
         <v>9</v>
       </c>
       <c r="N6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="75" t="s">
-        <v>9</v>
-      </c>
-      <c r="P6" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q6" s="75" t="s">
-        <v>9</v>
-      </c>
-      <c r="R6" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="S6" s="75" t="s">
+      <c r="O6" s="72" t="s">
+        <v>9</v>
+      </c>
+      <c r="P6" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q6" s="72" t="s">
+        <v>9</v>
+      </c>
+      <c r="R6" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="S6" s="72" t="s">
         <v>9</v>
       </c>
       <c r="T6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="72" t="s">
         <v>9</v>
       </c>
       <c r="V6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="W6" s="75" t="s">
-        <v>9</v>
-      </c>
-      <c r="X6" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y6" s="75" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z6" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA6" s="75" t="s">
+      <c r="W6" s="72" t="s">
+        <v>9</v>
+      </c>
+      <c r="X6" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y6" s="72" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z6" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA6" s="72" t="s">
         <v>9</v>
       </c>
       <c r="AB6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AC6" s="75" t="s">
+      <c r="AC6" s="72" t="s">
         <v>9</v>
       </c>
       <c r="AD6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AE6" s="75" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF6" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG6" s="75" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH6" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="AI6" s="75" t="s">
+      <c r="AE6" s="72" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF6" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG6" s="72" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH6" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI6" s="72" t="s">
         <v>9</v>
       </c>
       <c r="AJ6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AK6" s="75" t="s">
+      <c r="AK6" s="72" t="s">
         <v>9</v>
       </c>
       <c r="AL6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AM6" s="75" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN6" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="AO6" s="75" t="s">
-        <v>9</v>
-      </c>
-      <c r="AP6" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="AQ6" s="75" t="s">
+      <c r="AM6" s="72" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN6" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO6" s="72" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP6" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ6" s="72" t="s">
         <v>9</v>
       </c>
       <c r="AR6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AS6" s="75" t="s">
+      <c r="AS6" s="72" t="s">
         <v>9</v>
       </c>
       <c r="AT6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AU6" s="75" t="s">
-        <v>9</v>
-      </c>
-      <c r="AV6" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW6" s="75" t="s">
-        <v>9</v>
-      </c>
-      <c r="AX6" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="AY6" s="75" t="s">
+      <c r="AU6" s="72" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV6" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW6" s="72" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX6" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="AY6" s="72" t="s">
         <v>9</v>
       </c>
       <c r="AZ6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="BA6" s="75" t="s">
+      <c r="BA6" s="72" t="s">
         <v>9</v>
       </c>
       <c r="BB6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="BC6" s="75" t="s">
-        <v>9</v>
-      </c>
-      <c r="BD6" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="BE6" s="75" t="s">
-        <v>9</v>
-      </c>
-      <c r="BF6" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="BG6" s="75" t="s">
+      <c r="BC6" s="72" t="s">
+        <v>9</v>
+      </c>
+      <c r="BD6" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="BE6" s="72" t="s">
+        <v>9</v>
+      </c>
+      <c r="BF6" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG6" s="72" t="s">
         <v>9</v>
       </c>
       <c r="BH6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="BI6" s="75" t="s">
+      <c r="BI6" s="72" t="s">
         <v>9</v>
       </c>
       <c r="BJ6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="BK6" s="75" t="s">
-        <v>9</v>
-      </c>
-      <c r="BL6" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="BM6" s="75" t="s">
-        <v>9</v>
-      </c>
-      <c r="BN6" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="BO6" s="75" t="s">
+      <c r="BK6" s="72" t="s">
+        <v>9</v>
+      </c>
+      <c r="BL6" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="BM6" s="72" t="s">
+        <v>9</v>
+      </c>
+      <c r="BN6" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="BO6" s="72" t="s">
         <v>9</v>
       </c>
       <c r="BP6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="BQ6" s="75" t="s">
+      <c r="BQ6" s="72" t="s">
         <v>9</v>
       </c>
       <c r="BR6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="BS6" s="75" t="s">
-        <v>9</v>
-      </c>
-      <c r="BT6" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="BU6" s="75" t="s">
-        <v>9</v>
-      </c>
-      <c r="BV6" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="BW6" s="75" t="s">
+      <c r="BS6" s="72" t="s">
+        <v>9</v>
+      </c>
+      <c r="BT6" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="BU6" s="72" t="s">
+        <v>9</v>
+      </c>
+      <c r="BV6" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="BW6" s="72" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:75">
-      <c r="A7" s="76" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7" s="77">
+      <c r="A7" s="73" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="74">
         <v>8</v>
       </c>
-      <c r="C7" s="78"/>
-      <c r="D7" s="63">
+      <c r="C7" s="75"/>
+      <c r="D7" s="60">
         <v>13</v>
       </c>
-      <c r="E7" s="78"/>
-      <c r="F7" s="63">
+      <c r="E7" s="75"/>
+      <c r="F7" s="60">
         <v>18</v>
       </c>
-      <c r="G7" s="78"/>
-      <c r="H7" s="63">
+      <c r="G7" s="75"/>
+      <c r="H7" s="60">
         <v>13</v>
       </c>
-      <c r="I7" s="78"/>
-      <c r="J7" s="77">
+      <c r="I7" s="75"/>
+      <c r="J7" s="74">
         <v>8</v>
       </c>
-      <c r="K7" s="78"/>
-      <c r="L7" s="63">
+      <c r="K7" s="75"/>
+      <c r="L7" s="60">
         <v>13</v>
       </c>
-      <c r="M7" s="78"/>
-      <c r="N7" s="63">
+      <c r="M7" s="75"/>
+      <c r="N7" s="60">
         <v>18</v>
       </c>
-      <c r="O7" s="78"/>
-      <c r="P7" s="63">
+      <c r="O7" s="75"/>
+      <c r="P7" s="60">
         <v>13</v>
       </c>
-      <c r="Q7" s="78"/>
-      <c r="R7" s="77">
+      <c r="Q7" s="75"/>
+      <c r="R7" s="74">
         <v>8</v>
       </c>
-      <c r="S7" s="78"/>
-      <c r="T7" s="63">
+      <c r="S7" s="75"/>
+      <c r="T7" s="60">
         <v>13</v>
       </c>
-      <c r="U7" s="78"/>
-      <c r="V7" s="63">
+      <c r="U7" s="75"/>
+      <c r="V7" s="60">
         <v>18</v>
       </c>
-      <c r="W7" s="78"/>
-      <c r="X7" s="63">
+      <c r="W7" s="75"/>
+      <c r="X7" s="60">
         <v>13</v>
       </c>
-      <c r="Y7" s="78"/>
-      <c r="Z7" s="77">
+      <c r="Y7" s="75"/>
+      <c r="Z7" s="74">
         <v>8</v>
       </c>
-      <c r="AA7" s="78"/>
-      <c r="AB7" s="63">
+      <c r="AA7" s="75"/>
+      <c r="AB7" s="60">
         <v>13</v>
       </c>
-      <c r="AC7" s="78"/>
-      <c r="AD7" s="63">
+      <c r="AC7" s="75"/>
+      <c r="AD7" s="60">
         <v>18</v>
       </c>
-      <c r="AE7" s="78"/>
-      <c r="AF7" s="63">
+      <c r="AE7" s="75"/>
+      <c r="AF7" s="60">
         <v>13</v>
       </c>
-      <c r="AG7" s="78"/>
-      <c r="AH7" s="77">
+      <c r="AG7" s="75"/>
+      <c r="AH7" s="74">
         <v>8</v>
       </c>
-      <c r="AI7" s="78"/>
-      <c r="AJ7" s="63">
+      <c r="AI7" s="75"/>
+      <c r="AJ7" s="60">
         <v>13</v>
       </c>
-      <c r="AK7" s="78"/>
-      <c r="AL7" s="63">
+      <c r="AK7" s="75"/>
+      <c r="AL7" s="60">
         <v>18</v>
       </c>
-      <c r="AM7" s="78"/>
-      <c r="AN7" s="63">
+      <c r="AM7" s="75"/>
+      <c r="AN7" s="60">
         <v>13</v>
       </c>
-      <c r="AO7" s="78"/>
-      <c r="AP7" s="77">
+      <c r="AO7" s="75"/>
+      <c r="AP7" s="74">
         <v>8</v>
       </c>
-      <c r="AQ7" s="78"/>
-      <c r="AR7" s="63">
+      <c r="AQ7" s="75"/>
+      <c r="AR7" s="60">
         <v>13</v>
       </c>
-      <c r="AS7" s="78"/>
-      <c r="AT7" s="63">
+      <c r="AS7" s="75"/>
+      <c r="AT7" s="60">
         <v>18</v>
       </c>
-      <c r="AU7" s="78"/>
-      <c r="AV7" s="63">
+      <c r="AU7" s="75"/>
+      <c r="AV7" s="60">
         <v>13</v>
       </c>
-      <c r="AW7" s="78"/>
-      <c r="AX7" s="77">
+      <c r="AW7" s="75"/>
+      <c r="AX7" s="74">
         <v>8</v>
       </c>
-      <c r="AY7" s="78"/>
-      <c r="AZ7" s="63">
+      <c r="AY7" s="75"/>
+      <c r="AZ7" s="60">
         <v>13</v>
       </c>
-      <c r="BA7" s="78"/>
-      <c r="BB7" s="63">
+      <c r="BA7" s="75"/>
+      <c r="BB7" s="60">
         <v>18</v>
       </c>
-      <c r="BC7" s="78"/>
-      <c r="BD7" s="63">
+      <c r="BC7" s="75"/>
+      <c r="BD7" s="60">
         <v>13</v>
       </c>
-      <c r="BE7" s="78"/>
-      <c r="BF7" s="77">
+      <c r="BE7" s="75"/>
+      <c r="BF7" s="74">
         <v>8</v>
       </c>
-      <c r="BG7" s="78"/>
-      <c r="BH7" s="63">
+      <c r="BG7" s="75"/>
+      <c r="BH7" s="60">
         <v>13</v>
       </c>
-      <c r="BI7" s="78"/>
-      <c r="BJ7" s="63">
+      <c r="BI7" s="75"/>
+      <c r="BJ7" s="60">
         <v>18</v>
       </c>
-      <c r="BK7" s="78"/>
-      <c r="BL7" s="63">
+      <c r="BK7" s="75"/>
+      <c r="BL7" s="60">
         <v>13</v>
       </c>
-      <c r="BM7" s="78"/>
-      <c r="BN7" s="77">
+      <c r="BM7" s="75"/>
+      <c r="BN7" s="74">
         <v>8</v>
       </c>
-      <c r="BO7" s="78"/>
-      <c r="BP7" s="63">
+      <c r="BO7" s="75"/>
+      <c r="BP7" s="60">
         <v>13</v>
       </c>
-      <c r="BQ7" s="78"/>
-      <c r="BR7" s="63">
+      <c r="BQ7" s="75"/>
+      <c r="BR7" s="60">
         <v>18</v>
       </c>
-      <c r="BS7" s="78"/>
-      <c r="BT7" s="63">
+      <c r="BS7" s="75"/>
+      <c r="BT7" s="60">
         <v>13</v>
       </c>
-      <c r="BU7" s="78"/>
-      <c r="BV7" s="77">
+      <c r="BU7" s="75"/>
+      <c r="BV7" s="74">
         <v>8</v>
       </c>
-      <c r="BW7" s="78"/>
+      <c r="BW7" s="75"/>
     </row>
     <row r="8" spans="1:75">
-      <c r="A8" s="73"/>
-      <c r="B8" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="75" t="s">
+      <c r="A8" s="70"/>
+      <c r="B8" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="72" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="75" t="s">
+      <c r="E8" s="72" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="75" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="75" t="s">
-        <v>9</v>
-      </c>
-      <c r="J8" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" s="75" t="s">
+      <c r="G8" s="72" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="72" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="72" t="s">
         <v>9</v>
       </c>
       <c r="L8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="75" t="s">
+      <c r="M8" s="72" t="s">
         <v>9</v>
       </c>
       <c r="N8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="O8" s="75" t="s">
-        <v>9</v>
-      </c>
-      <c r="P8" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q8" s="75" t="s">
-        <v>9</v>
-      </c>
-      <c r="R8" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="S8" s="75" t="s">
+      <c r="O8" s="72" t="s">
+        <v>9</v>
+      </c>
+      <c r="P8" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q8" s="72" t="s">
+        <v>9</v>
+      </c>
+      <c r="R8" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="S8" s="72" t="s">
         <v>9</v>
       </c>
       <c r="T8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="U8" s="75" t="s">
+      <c r="U8" s="72" t="s">
         <v>9</v>
       </c>
       <c r="V8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="W8" s="75" t="s">
-        <v>9</v>
-      </c>
-      <c r="X8" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y8" s="75" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z8" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA8" s="75" t="s">
+      <c r="W8" s="72" t="s">
+        <v>9</v>
+      </c>
+      <c r="X8" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y8" s="72" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z8" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA8" s="72" t="s">
         <v>9</v>
       </c>
       <c r="AB8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AC8" s="75" t="s">
+      <c r="AC8" s="72" t="s">
         <v>9</v>
       </c>
       <c r="AD8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AE8" s="75" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF8" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG8" s="75" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH8" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="AI8" s="75" t="s">
+      <c r="AE8" s="72" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF8" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG8" s="72" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH8" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI8" s="72" t="s">
         <v>9</v>
       </c>
       <c r="AJ8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AK8" s="75" t="s">
+      <c r="AK8" s="72" t="s">
         <v>9</v>
       </c>
       <c r="AL8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AM8" s="75" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN8" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="AO8" s="75" t="s">
-        <v>9</v>
-      </c>
-      <c r="AP8" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="AQ8" s="75" t="s">
+      <c r="AM8" s="72" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN8" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO8" s="72" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP8" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ8" s="72" t="s">
         <v>9</v>
       </c>
       <c r="AR8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AS8" s="75" t="s">
+      <c r="AS8" s="72" t="s">
         <v>9</v>
       </c>
       <c r="AT8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AU8" s="75" t="s">
-        <v>9</v>
-      </c>
-      <c r="AV8" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW8" s="75" t="s">
-        <v>9</v>
-      </c>
-      <c r="AX8" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="AY8" s="75" t="s">
+      <c r="AU8" s="72" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV8" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW8" s="72" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX8" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="AY8" s="72" t="s">
         <v>9</v>
       </c>
       <c r="AZ8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="BA8" s="75" t="s">
+      <c r="BA8" s="72" t="s">
         <v>9</v>
       </c>
       <c r="BB8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="BC8" s="75" t="s">
-        <v>9</v>
-      </c>
-      <c r="BD8" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="BE8" s="75" t="s">
-        <v>9</v>
-      </c>
-      <c r="BF8" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="BG8" s="75" t="s">
+      <c r="BC8" s="72" t="s">
+        <v>9</v>
+      </c>
+      <c r="BD8" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="BE8" s="72" t="s">
+        <v>9</v>
+      </c>
+      <c r="BF8" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG8" s="72" t="s">
         <v>9</v>
       </c>
       <c r="BH8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="BI8" s="75" t="s">
+      <c r="BI8" s="72" t="s">
         <v>9</v>
       </c>
       <c r="BJ8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="BK8" s="75" t="s">
-        <v>9</v>
-      </c>
-      <c r="BL8" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="BM8" s="75" t="s">
-        <v>9</v>
-      </c>
-      <c r="BN8" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="BO8" s="75" t="s">
+      <c r="BK8" s="72" t="s">
+        <v>9</v>
+      </c>
+      <c r="BL8" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="BM8" s="72" t="s">
+        <v>9</v>
+      </c>
+      <c r="BN8" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="BO8" s="72" t="s">
         <v>9</v>
       </c>
       <c r="BP8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="BQ8" s="75" t="s">
+      <c r="BQ8" s="72" t="s">
         <v>9</v>
       </c>
       <c r="BR8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="BS8" s="75" t="s">
-        <v>9</v>
-      </c>
-      <c r="BT8" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="BU8" s="75" t="s">
-        <v>9</v>
-      </c>
-      <c r="BV8" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="BW8" s="75" t="s">
+      <c r="BS8" s="72" t="s">
+        <v>9</v>
+      </c>
+      <c r="BT8" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="BU8" s="72" t="s">
+        <v>9</v>
+      </c>
+      <c r="BV8" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="BW8" s="72" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:75">
-      <c r="A9" s="76" t="s">
-        <v>101</v>
-      </c>
-      <c r="B9" s="77">
+      <c r="A9" s="73" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="74">
         <v>8</v>
       </c>
-      <c r="C9" s="78"/>
-      <c r="D9" s="63">
+      <c r="C9" s="75"/>
+      <c r="D9" s="60">
         <v>13</v>
       </c>
-      <c r="E9" s="78"/>
-      <c r="F9" s="63">
+      <c r="E9" s="75"/>
+      <c r="F9" s="60">
         <v>18</v>
       </c>
-      <c r="G9" s="78"/>
-      <c r="H9" s="63">
+      <c r="G9" s="75"/>
+      <c r="H9" s="60">
         <v>13</v>
       </c>
-      <c r="I9" s="78"/>
-      <c r="J9" s="77">
+      <c r="I9" s="75"/>
+      <c r="J9" s="74">
         <v>8</v>
       </c>
-      <c r="K9" s="78"/>
-      <c r="L9" s="63">
+      <c r="K9" s="75"/>
+      <c r="L9" s="60">
         <v>13</v>
       </c>
-      <c r="M9" s="78"/>
-      <c r="N9" s="63">
+      <c r="M9" s="75"/>
+      <c r="N9" s="60">
         <v>18</v>
       </c>
-      <c r="O9" s="78"/>
-      <c r="P9" s="63">
+      <c r="O9" s="75"/>
+      <c r="P9" s="60">
         <v>13</v>
       </c>
-      <c r="Q9" s="78"/>
-      <c r="R9" s="77">
+      <c r="Q9" s="75"/>
+      <c r="R9" s="74">
         <v>8</v>
       </c>
-      <c r="S9" s="78"/>
-      <c r="T9" s="63">
+      <c r="S9" s="75"/>
+      <c r="T9" s="60">
         <v>13</v>
       </c>
-      <c r="U9" s="78"/>
-      <c r="V9" s="63">
+      <c r="U9" s="75"/>
+      <c r="V9" s="60">
         <v>18</v>
       </c>
-      <c r="W9" s="78"/>
-      <c r="X9" s="63">
+      <c r="W9" s="75"/>
+      <c r="X9" s="60">
         <v>13</v>
       </c>
-      <c r="Y9" s="78"/>
-      <c r="Z9" s="77">
+      <c r="Y9" s="75"/>
+      <c r="Z9" s="74">
         <v>8</v>
       </c>
-      <c r="AA9" s="78"/>
-      <c r="AB9" s="63">
+      <c r="AA9" s="75"/>
+      <c r="AB9" s="60">
         <v>13</v>
       </c>
-      <c r="AC9" s="78"/>
-      <c r="AD9" s="63">
+      <c r="AC9" s="75"/>
+      <c r="AD9" s="60">
         <v>18</v>
       </c>
-      <c r="AE9" s="78"/>
-      <c r="AF9" s="63">
+      <c r="AE9" s="75"/>
+      <c r="AF9" s="60">
         <v>13</v>
       </c>
-      <c r="AG9" s="78"/>
-      <c r="AH9" s="77">
+      <c r="AG9" s="75"/>
+      <c r="AH9" s="74">
         <v>8</v>
       </c>
-      <c r="AI9" s="78"/>
-      <c r="AJ9" s="63">
+      <c r="AI9" s="75"/>
+      <c r="AJ9" s="60">
         <v>13</v>
       </c>
-      <c r="AK9" s="78"/>
-      <c r="AL9" s="63">
+      <c r="AK9" s="75"/>
+      <c r="AL9" s="60">
         <v>18</v>
       </c>
-      <c r="AM9" s="78"/>
-      <c r="AN9" s="63">
+      <c r="AM9" s="75"/>
+      <c r="AN9" s="60">
         <v>13</v>
       </c>
-      <c r="AO9" s="78"/>
-      <c r="AP9" s="77">
+      <c r="AO9" s="75"/>
+      <c r="AP9" s="74">
         <v>8</v>
       </c>
-      <c r="AQ9" s="78"/>
-      <c r="AR9" s="63">
+      <c r="AQ9" s="75"/>
+      <c r="AR9" s="60">
         <v>13</v>
       </c>
-      <c r="AS9" s="78"/>
-      <c r="AT9" s="63">
+      <c r="AS9" s="75"/>
+      <c r="AT9" s="60">
         <v>18</v>
       </c>
-      <c r="AU9" s="78"/>
-      <c r="AV9" s="63">
+      <c r="AU9" s="75"/>
+      <c r="AV9" s="60">
         <v>13</v>
       </c>
-      <c r="AW9" s="78"/>
-      <c r="AX9" s="77">
+      <c r="AW9" s="75"/>
+      <c r="AX9" s="74">
         <v>8</v>
       </c>
-      <c r="AY9" s="78"/>
-      <c r="AZ9" s="63">
+      <c r="AY9" s="75"/>
+      <c r="AZ9" s="60">
         <v>13</v>
       </c>
-      <c r="BA9" s="78"/>
-      <c r="BB9" s="63">
+      <c r="BA9" s="75"/>
+      <c r="BB9" s="60">
         <v>18</v>
       </c>
-      <c r="BC9" s="78"/>
-      <c r="BD9" s="63">
+      <c r="BC9" s="75"/>
+      <c r="BD9" s="60">
         <v>13</v>
       </c>
-      <c r="BE9" s="78"/>
-      <c r="BF9" s="77">
+      <c r="BE9" s="75"/>
+      <c r="BF9" s="74">
         <v>8</v>
       </c>
-      <c r="BG9" s="78"/>
-      <c r="BH9" s="63">
+      <c r="BG9" s="75"/>
+      <c r="BH9" s="60">
         <v>13</v>
       </c>
-      <c r="BI9" s="78"/>
-      <c r="BJ9" s="63">
+      <c r="BI9" s="75"/>
+      <c r="BJ9" s="60">
         <v>18</v>
       </c>
-      <c r="BK9" s="78"/>
-      <c r="BL9" s="63">
+      <c r="BK9" s="75"/>
+      <c r="BL9" s="60">
         <v>13</v>
       </c>
-      <c r="BM9" s="78"/>
-      <c r="BN9" s="77">
+      <c r="BM9" s="75"/>
+      <c r="BN9" s="74">
         <v>8</v>
       </c>
-      <c r="BO9" s="78"/>
-      <c r="BP9" s="63">
+      <c r="BO9" s="75"/>
+      <c r="BP9" s="60">
         <v>13</v>
       </c>
-      <c r="BQ9" s="78"/>
-      <c r="BR9" s="63">
+      <c r="BQ9" s="75"/>
+      <c r="BR9" s="60">
         <v>18</v>
       </c>
-      <c r="BS9" s="78"/>
-      <c r="BT9" s="63">
+      <c r="BS9" s="75"/>
+      <c r="BT9" s="60">
         <v>13</v>
       </c>
-      <c r="BU9" s="78"/>
-      <c r="BV9" s="77">
+      <c r="BU9" s="75"/>
+      <c r="BV9" s="74">
         <v>8</v>
       </c>
-      <c r="BW9" s="78"/>
+      <c r="BW9" s="75"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7600,10 +7618,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N38"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7618,30 +7636,30 @@
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="38" t="s">
         <v>17</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
       <c r="N1" s="26"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="79" t="s">
-        <v>112</v>
+      <c r="B2" s="76" t="s">
+        <v>110</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="26"/>
@@ -7652,15 +7670,15 @@
       <c r="I2" s="26"/>
       <c r="J2" s="26"/>
       <c r="K2" s="26"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
       <c r="N2" s="26"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="79">
+      <c r="B3" s="76">
         <v>6.36</v>
       </c>
       <c r="C3" s="5"/>
@@ -7672,15 +7690,15 @@
       <c r="I3" s="26"/>
       <c r="J3" s="26"/>
       <c r="K3" s="26"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
       <c r="N3" s="26"/>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="80"/>
+      <c r="B4" s="77"/>
       <c r="C4" s="5"/>
       <c r="D4" s="26"/>
       <c r="E4" s="26"/>
@@ -7698,7 +7716,7 @@
       <c r="A5" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="79"/>
+      <c r="B5" s="76"/>
       <c r="C5" s="5"/>
       <c r="D5" s="26"/>
       <c r="E5" s="26"/>
@@ -7714,12 +7732,10 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" s="79">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="C6" s="40"/>
+        <v>162</v>
+      </c>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
       <c r="D6" s="26"/>
       <c r="E6" s="26"/>
       <c r="F6" s="26"/>
@@ -7733,12 +7749,10 @@
       <c r="N6" s="26"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="63" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" s="80">
-        <v>1</v>
-      </c>
+      <c r="A7" s="60" t="s">
+        <v>163</v>
+      </c>
+      <c r="B7" s="100"/>
       <c r="C7" s="5"/>
       <c r="D7" s="26"/>
       <c r="E7" s="26"/>
@@ -7754,9 +7768,9 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B8" s="79"/>
+        <v>164</v>
+      </c>
+      <c r="B8" s="39"/>
       <c r="C8" s="5"/>
       <c r="D8" s="26"/>
       <c r="E8" s="26"/>
@@ -7771,11 +7785,11 @@
       <c r="N8" s="26"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="B9" s="83"/>
-      <c r="C9" s="40"/>
+      <c r="A9" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
       <c r="D9" s="26"/>
       <c r="E9" s="26"/>
       <c r="F9" s="26"/>
@@ -7789,11 +7803,9 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="B10" s="81">
-        <v>5.0000000000000004E-6</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="B10" s="101"/>
       <c r="C10" s="5"/>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7808,11 +7820,9 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="B11" s="82">
-        <v>2.65E-5</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="B11" s="76"/>
       <c r="C11" s="5"/>
       <c r="D11" s="26"/>
       <c r="E11" s="26"/>
@@ -7826,10 +7836,10 @@
       <c r="M11" s="26"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B12" s="79"/>
+      <c r="A12" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="B12" s="80"/>
       <c r="C12" s="5"/>
       <c r="D12" s="26"/>
       <c r="E12" s="26"/>
@@ -7843,11 +7853,13 @@
       <c r="M12" s="26"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="B13" s="79"/>
-      <c r="C13" s="40"/>
+      <c r="A13" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B13" s="78">
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="C13" s="39"/>
       <c r="D13" s="26"/>
       <c r="E13" s="26"/>
       <c r="F13" s="26"/>
@@ -7862,145 +7874,108 @@
     </row>
     <row r="14" spans="1:14" ht="18" customHeight="1">
       <c r="A14" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B14" s="81">
-        <v>5.0000000000000004E-6</v>
+        <v>152</v>
+      </c>
+      <c r="B14" s="79">
+        <v>2.65E-5</v>
       </c>
       <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="B15" s="82">
-        <v>2.65E-5</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="B15" s="76"/>
       <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="B16" s="79"/>
+      <c r="A16" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B16" s="76"/>
+      <c r="C16" s="5"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="B17" s="79"/>
+      <c r="A17" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B17" s="78">
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="C17" s="5"/>
     </row>
     <row r="18" spans="1:3" ht="17" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B18" s="82">
-        <v>6.3999999999999997E-6</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="B18" s="79">
+        <v>2.65E-5</v>
+      </c>
+      <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="B19" s="82">
-        <v>1.2500000000000001E-5</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="B19" s="76"/>
+      <c r="C19" s="5"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B20" s="79"/>
-      <c r="C20" s="2"/>
+      <c r="A20" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="B20" s="76"/>
+      <c r="C20" s="39"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="B21" s="79"/>
-      <c r="C21" s="2"/>
+      <c r="A21" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B21" s="79">
+        <v>6.3999999999999997E-6</v>
+      </c>
+      <c r="C21" s="5"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="B22" s="82">
-        <v>6.3999999999999997E-6</v>
-      </c>
-      <c r="C22" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="B22" s="79">
+        <v>1.2500000000000001E-5</v>
+      </c>
+      <c r="C22" s="5"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B23" s="82">
+        <v>136</v>
+      </c>
+      <c r="B23" s="76"/>
+      <c r="C23" s="39"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="B24" s="76"/>
+      <c r="C24" s="5"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B25" s="79">
+        <v>6.3999999999999997E-6</v>
+      </c>
+      <c r="C25" s="5"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B26" s="79">
         <v>1.2500000000000001E-5</v>
       </c>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="2"/>
-      <c r="B26" s="53"/>
-      <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="54"/>
-      <c r="B27" s="52"/>
-      <c r="C27" s="2"/>
-    </row>
-    <row r="28" spans="1:3" ht="23">
-      <c r="A28" s="51"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="2"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="53"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="2"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="55"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="1:3" ht="23">
-      <c r="A33" s="2"/>
-      <c r="B33" s="51"/>
-      <c r="C33" s="51"/>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="26"/>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="38"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="26"/>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="38"/>
-      <c r="B37" s="38"/>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="B38" s="38"/>
+      <c r="C26" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8045,7 +8020,7 @@
       <c r="B1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="70" t="s">
+      <c r="C1" s="67" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="18" t="s">
@@ -8057,7 +8032,7 @@
       <c r="F1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="72" t="s">
+      <c r="G1" s="69" t="s">
         <v>20</v>
       </c>
       <c r="H1" s="18" t="s">
@@ -8081,7 +8056,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C2" s="23"/>
       <c r="D2" s="21" t="s">
@@ -8106,7 +8081,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="21" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B3" s="5">
         <v>4.7E-2</v>
@@ -8125,7 +8100,7 @@
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K3" s="34">
         <v>0.08</v>
@@ -8225,8 +8200,8 @@
         <v>30</v>
       </c>
       <c r="H7" s="5"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="69"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="66"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="21" t="s">
@@ -8305,7 +8280,7 @@
         <v>34</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="71"/>
+      <c r="C12" s="68"/>
       <c r="D12" s="29" t="s">
         <v>34</v>
       </c>
@@ -8329,9 +8304,9 @@
       <c r="C13" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="51"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="62"/>
+      <c r="D13" s="50"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="59"/>
       <c r="H13" s="25" t="s">
         <v>29</v>
       </c>
@@ -8344,24 +8319,24 @@
         <v>10</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="52"/>
+      <c r="F14" s="51"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="21" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B15" s="5">
         <v>9.8000000000000004E-2</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="21" t="s">
@@ -8373,7 +8348,7 @@
       <c r="C16" s="23"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="52"/>
+      <c r="F16" s="51"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="21" t="s">
@@ -8393,7 +8368,7 @@
       <c r="C18" s="23"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="52"/>
+      <c r="F18" s="51"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="21" t="s">
@@ -8403,7 +8378,7 @@
       <c r="C19" s="5"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="52"/>
+      <c r="F19" s="51"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="21" t="s">
@@ -8413,7 +8388,7 @@
       <c r="C20" s="5"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="52"/>
+      <c r="F20" s="51"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="21" t="s">
@@ -8423,7 +8398,7 @@
       <c r="C21" s="5"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="52"/>
+      <c r="F21" s="51"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="4" t="s">
@@ -8433,7 +8408,7 @@
       <c r="C22" s="5"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="52"/>
+      <c r="F22" s="51"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="4" t="s">
@@ -8443,7 +8418,7 @@
       <c r="C23" s="5"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="52"/>
+      <c r="F23" s="51"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="13" t="s">
@@ -8452,8 +8427,8 @@
       <c r="B24" s="8"/>
       <c r="C24" s="35"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="52"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="51"/>
     </row>
     <row r="25" spans="1:6" ht="23">
       <c r="A25" s="18" t="s">
@@ -8471,13 +8446,13 @@
         <v>10</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C26" s="5"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="21" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B27" s="5">
         <v>0.43099999999999999</v>
@@ -8588,53 +8563,53 @@
       <c r="A1" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="48" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="50" t="s">
-        <v>113</v>
-      </c>
-      <c r="B2" s="50"/>
+      <c r="A2" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="49"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="50">
+      <c r="B3" s="49">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="50">
+      <c r="B4" s="49">
         <v>0.6</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="50">
+      <c r="B5" s="49">
         <v>0.4</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="50" t="s">
-        <v>113</v>
-      </c>
-      <c r="B6" s="50">
+      <c r="A6" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" s="49">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="B7" s="50">
+      <c r="A7" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" s="49">
         <v>0</v>
       </c>
       <c r="C7" s="15"/>
@@ -8642,10 +8617,10 @@
       <c r="E7" s="15"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="50" t="s">
-        <v>115</v>
-      </c>
-      <c r="B8" s="50">
+      <c r="A8" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" s="49">
         <v>0</v>
       </c>
     </row>
@@ -8653,61 +8628,61 @@
       <c r="A9" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="48" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="B10" s="50"/>
+      <c r="A10" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" s="49"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="50">
+      <c r="B11" s="49">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="50">
+      <c r="B12" s="49">
         <v>0.2</v>
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="50" t="s">
+      <c r="A13" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="50">
+      <c r="B13" s="49">
         <v>0.8</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="B15" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="B14" s="50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="B15" s="50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="50" t="s">
-        <v>115</v>
-      </c>
-      <c r="B16" s="50">
+      <c r="B16" s="49">
         <v>0</v>
       </c>
       <c r="H16" s="15"/>
@@ -8718,53 +8693,53 @@
       <c r="A17" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="48" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="50" t="s">
-        <v>115</v>
-      </c>
-      <c r="B18" s="50"/>
+      <c r="A18" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" s="49"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="50" t="s">
+      <c r="A19" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="50">
+      <c r="B19" s="49">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="50" t="s">
+      <c r="A20" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="50">
+      <c r="B20" s="49">
         <v>0.1</v>
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="50">
+      <c r="B21" s="49">
         <v>0.2</v>
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="50" t="s">
-        <v>113</v>
-      </c>
-      <c r="B22" s="50">
+      <c r="A22" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="B22" s="49">
         <v>0.7</v>
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="B23" s="50">
+      <c r="A23" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="B23" s="49">
         <v>0</v>
       </c>
       <c r="H23" s="15"/>
@@ -8772,10 +8747,10 @@
       <c r="J23" s="15"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="50" t="s">
-        <v>115</v>
-      </c>
-      <c r="B24" s="50">
+      <c r="A24" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24" s="49">
         <v>0</v>
       </c>
       <c r="H24" s="15"/>
@@ -8852,161 +8827,161 @@
       <c r="A1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="G1" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="H1" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="I1" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="J1" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="I1" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="J1" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="K1" s="41" t="s">
+      <c r="K1" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="L1" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="M1" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="L1" s="41" t="s">
+      <c r="N1" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="M1" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="N1" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="O1" s="41" t="s">
+      <c r="O1" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="P1" s="41" t="s">
+      <c r="P1" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="Q1" s="41" t="s">
+      <c r="Q1" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="R1" s="41" t="s">
+      <c r="R1" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="S1" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="T1" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="S1" s="41" t="s">
+      <c r="U1" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="T1" s="41" t="s">
+      <c r="V1" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="U1" s="41" t="s">
+      <c r="W1" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="V1" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="W1" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="X1" s="41" t="s">
+      <c r="X1" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y1" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z1" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="Y1" s="41" t="s">
+      <c r="AA1" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="Z1" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA1" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="AB1" s="41" t="s">
+      <c r="AB1" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="AC1" s="41" t="s">
+      <c r="AC1" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="AD1" s="41" t="s">
+      <c r="AD1" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="AE1" s="41" t="s">
+      <c r="AE1" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF1" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG1" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="AF1" s="41" t="s">
+      <c r="AH1" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="AG1" s="41" t="s">
+      <c r="AI1" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="AH1" s="41" t="s">
+      <c r="AJ1" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="AI1" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="AJ1" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="AK1" s="41" t="s">
+      <c r="AK1" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="AL1" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="AM1" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="AL1" s="41" t="s">
+      <c r="AN1" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="AM1" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="AN1" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="AO1" s="41" t="s">
+      <c r="AO1" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="AP1" s="41" t="s">
+      <c r="AP1" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="AQ1" s="41" t="s">
+      <c r="AQ1" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="AR1" s="41" t="s">
+      <c r="AR1" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="AS1" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="AT1" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="AS1" s="41" t="s">
+      <c r="AU1" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="AT1" s="41" t="s">
+      <c r="AV1" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="AU1" s="41" t="s">
+      <c r="AW1" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="AV1" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="AW1" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="AX1" s="41" t="s">
+      <c r="AX1" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="AY1" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ1" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="AY1" s="41" t="s">
+      <c r="BA1" s="40" t="s">
         <v>120</v>
-      </c>
-      <c r="AZ1" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="BA1" s="41" t="s">
-        <v>122</v>
       </c>
       <c r="BB1" s="15"/>
       <c r="BC1" s="15"/>
@@ -9490,162 +9465,162 @@
     </row>
     <row r="2" spans="1:532">
       <c r="A2" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="B2" s="42">
-        <v>1</v>
-      </c>
-      <c r="C2" s="43">
-        <v>1</v>
-      </c>
-      <c r="D2" s="43">
-        <v>1</v>
-      </c>
-      <c r="E2" s="42">
-        <v>1</v>
-      </c>
-      <c r="F2" s="43">
-        <v>1</v>
-      </c>
-      <c r="G2" s="43">
-        <v>1</v>
-      </c>
-      <c r="H2" s="42">
-        <v>1</v>
-      </c>
-      <c r="I2" s="43">
-        <v>1</v>
-      </c>
-      <c r="J2" s="43">
-        <v>1</v>
-      </c>
-      <c r="K2" s="43">
-        <v>1</v>
-      </c>
-      <c r="L2" s="42">
-        <v>1</v>
-      </c>
-      <c r="M2" s="43">
-        <v>1</v>
-      </c>
-      <c r="N2" s="43">
-        <v>1</v>
-      </c>
-      <c r="O2" s="42">
-        <v>1</v>
-      </c>
-      <c r="P2" s="43">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="43">
-        <v>1</v>
-      </c>
-      <c r="R2" s="42">
-        <v>1</v>
-      </c>
-      <c r="S2" s="43">
-        <v>1</v>
-      </c>
-      <c r="T2" s="43">
-        <v>1</v>
-      </c>
-      <c r="U2" s="42">
-        <v>1</v>
-      </c>
-      <c r="V2" s="43">
-        <v>1</v>
-      </c>
-      <c r="W2" s="43">
-        <v>1</v>
-      </c>
-      <c r="X2" s="43">
-        <v>1</v>
-      </c>
-      <c r="Y2" s="42">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="43">
-        <v>1</v>
-      </c>
-      <c r="AA2" s="43">
-        <v>1</v>
-      </c>
-      <c r="AB2" s="42">
-        <v>1</v>
-      </c>
-      <c r="AC2" s="43">
-        <v>1</v>
-      </c>
-      <c r="AD2" s="43">
-        <v>1</v>
-      </c>
-      <c r="AE2" s="42">
-        <v>1</v>
-      </c>
-      <c r="AF2" s="43">
-        <v>1</v>
-      </c>
-      <c r="AG2" s="43">
-        <v>1</v>
-      </c>
-      <c r="AH2" s="42">
-        <v>1</v>
-      </c>
-      <c r="AI2" s="43">
-        <v>1</v>
-      </c>
-      <c r="AJ2" s="43">
-        <v>1</v>
-      </c>
-      <c r="AK2" s="43">
-        <v>1</v>
-      </c>
-      <c r="AL2" s="42">
-        <v>1</v>
-      </c>
-      <c r="AM2" s="43">
-        <v>1</v>
-      </c>
-      <c r="AN2" s="43">
-        <v>1</v>
-      </c>
-      <c r="AO2" s="42">
-        <v>1</v>
-      </c>
-      <c r="AP2" s="43">
-        <v>1</v>
-      </c>
-      <c r="AQ2" s="43">
-        <v>1</v>
-      </c>
-      <c r="AR2" s="42">
-        <v>1</v>
-      </c>
-      <c r="AS2" s="43">
-        <v>1</v>
-      </c>
-      <c r="AT2" s="43">
-        <v>1</v>
-      </c>
-      <c r="AU2" s="42">
-        <v>1</v>
-      </c>
-      <c r="AV2" s="43">
-        <v>1</v>
-      </c>
-      <c r="AW2" s="43">
-        <v>1</v>
-      </c>
-      <c r="AX2" s="43">
-        <v>1</v>
-      </c>
-      <c r="AY2" s="42">
-        <v>1</v>
-      </c>
-      <c r="AZ2" s="43">
-        <v>1</v>
-      </c>
-      <c r="BA2" s="43">
+        <v>111</v>
+      </c>
+      <c r="B2" s="41">
+        <v>1</v>
+      </c>
+      <c r="C2" s="42">
+        <v>1</v>
+      </c>
+      <c r="D2" s="42">
+        <v>1</v>
+      </c>
+      <c r="E2" s="41">
+        <v>1</v>
+      </c>
+      <c r="F2" s="42">
+        <v>1</v>
+      </c>
+      <c r="G2" s="42">
+        <v>1</v>
+      </c>
+      <c r="H2" s="41">
+        <v>1</v>
+      </c>
+      <c r="I2" s="42">
+        <v>1</v>
+      </c>
+      <c r="J2" s="42">
+        <v>1</v>
+      </c>
+      <c r="K2" s="42">
+        <v>1</v>
+      </c>
+      <c r="L2" s="41">
+        <v>1</v>
+      </c>
+      <c r="M2" s="42">
+        <v>1</v>
+      </c>
+      <c r="N2" s="42">
+        <v>1</v>
+      </c>
+      <c r="O2" s="41">
+        <v>1</v>
+      </c>
+      <c r="P2" s="42">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="42">
+        <v>1</v>
+      </c>
+      <c r="R2" s="41">
+        <v>1</v>
+      </c>
+      <c r="S2" s="42">
+        <v>1</v>
+      </c>
+      <c r="T2" s="42">
+        <v>1</v>
+      </c>
+      <c r="U2" s="41">
+        <v>1</v>
+      </c>
+      <c r="V2" s="42">
+        <v>1</v>
+      </c>
+      <c r="W2" s="42">
+        <v>1</v>
+      </c>
+      <c r="X2" s="42">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="41">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="42">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="42">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="41">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="42">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="42">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="41">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="42">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="42">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="42">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="42">
+        <v>1</v>
+      </c>
+      <c r="AK2" s="42">
+        <v>1</v>
+      </c>
+      <c r="AL2" s="41">
+        <v>1</v>
+      </c>
+      <c r="AM2" s="42">
+        <v>1</v>
+      </c>
+      <c r="AN2" s="42">
+        <v>1</v>
+      </c>
+      <c r="AO2" s="41">
+        <v>1</v>
+      </c>
+      <c r="AP2" s="42">
+        <v>1</v>
+      </c>
+      <c r="AQ2" s="42">
+        <v>1</v>
+      </c>
+      <c r="AR2" s="41">
+        <v>1</v>
+      </c>
+      <c r="AS2" s="42">
+        <v>1</v>
+      </c>
+      <c r="AT2" s="42">
+        <v>1</v>
+      </c>
+      <c r="AU2" s="41">
+        <v>1</v>
+      </c>
+      <c r="AV2" s="42">
+        <v>1</v>
+      </c>
+      <c r="AW2" s="42">
+        <v>1</v>
+      </c>
+      <c r="AX2" s="42">
+        <v>1</v>
+      </c>
+      <c r="AY2" s="41">
+        <v>1</v>
+      </c>
+      <c r="AZ2" s="42">
+        <v>1</v>
+      </c>
+      <c r="BA2" s="42">
         <v>1</v>
       </c>
       <c r="FM2" s="15"/>
@@ -9655,162 +9630,162 @@
     </row>
     <row r="3" spans="1:532">
       <c r="A3" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B3" s="42">
-        <v>1</v>
-      </c>
-      <c r="C3" s="43">
-        <v>1</v>
-      </c>
-      <c r="D3" s="43">
-        <v>1</v>
-      </c>
-      <c r="E3" s="42">
-        <v>1</v>
-      </c>
-      <c r="F3" s="43">
-        <v>1</v>
-      </c>
-      <c r="G3" s="43">
-        <v>1</v>
-      </c>
-      <c r="H3" s="42">
-        <v>1</v>
-      </c>
-      <c r="I3" s="43">
-        <v>1</v>
-      </c>
-      <c r="J3" s="43">
-        <v>1</v>
-      </c>
-      <c r="K3" s="43">
-        <v>1</v>
-      </c>
-      <c r="L3" s="42">
-        <v>1</v>
-      </c>
-      <c r="M3" s="43">
-        <v>1</v>
-      </c>
-      <c r="N3" s="43">
-        <v>1</v>
-      </c>
-      <c r="O3" s="42">
-        <v>1</v>
-      </c>
-      <c r="P3" s="43">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="43">
-        <v>1</v>
-      </c>
-      <c r="R3" s="42">
-        <v>1</v>
-      </c>
-      <c r="S3" s="43">
-        <v>1</v>
-      </c>
-      <c r="T3" s="43">
-        <v>1</v>
-      </c>
-      <c r="U3" s="42">
-        <v>1</v>
-      </c>
-      <c r="V3" s="43">
-        <v>1</v>
-      </c>
-      <c r="W3" s="43">
-        <v>1</v>
-      </c>
-      <c r="X3" s="43">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="42">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="43">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="43">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="42">
-        <v>1</v>
-      </c>
-      <c r="AC3" s="43">
-        <v>1</v>
-      </c>
-      <c r="AD3" s="43">
-        <v>1</v>
-      </c>
-      <c r="AE3" s="42">
-        <v>1</v>
-      </c>
-      <c r="AF3" s="43">
-        <v>1</v>
-      </c>
-      <c r="AG3" s="43">
-        <v>1</v>
-      </c>
-      <c r="AH3" s="42">
-        <v>1</v>
-      </c>
-      <c r="AI3" s="43">
-        <v>1</v>
-      </c>
-      <c r="AJ3" s="43">
-        <v>1</v>
-      </c>
-      <c r="AK3" s="43">
-        <v>1</v>
-      </c>
-      <c r="AL3" s="42">
-        <v>1</v>
-      </c>
-      <c r="AM3" s="43">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="43">
-        <v>1</v>
-      </c>
-      <c r="AO3" s="42">
-        <v>1</v>
-      </c>
-      <c r="AP3" s="43">
-        <v>1</v>
-      </c>
-      <c r="AQ3" s="43">
-        <v>1</v>
-      </c>
-      <c r="AR3" s="42">
-        <v>1</v>
-      </c>
-      <c r="AS3" s="43">
-        <v>1</v>
-      </c>
-      <c r="AT3" s="43">
-        <v>1</v>
-      </c>
-      <c r="AU3" s="42">
-        <v>1</v>
-      </c>
-      <c r="AV3" s="43">
-        <v>1</v>
-      </c>
-      <c r="AW3" s="43">
-        <v>1</v>
-      </c>
-      <c r="AX3" s="43">
-        <v>1</v>
-      </c>
-      <c r="AY3" s="42">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="43">
-        <v>1</v>
-      </c>
-      <c r="BA3" s="43">
+        <v>112</v>
+      </c>
+      <c r="B3" s="41">
+        <v>1</v>
+      </c>
+      <c r="C3" s="42">
+        <v>1</v>
+      </c>
+      <c r="D3" s="42">
+        <v>1</v>
+      </c>
+      <c r="E3" s="41">
+        <v>1</v>
+      </c>
+      <c r="F3" s="42">
+        <v>1</v>
+      </c>
+      <c r="G3" s="42">
+        <v>1</v>
+      </c>
+      <c r="H3" s="41">
+        <v>1</v>
+      </c>
+      <c r="I3" s="42">
+        <v>1</v>
+      </c>
+      <c r="J3" s="42">
+        <v>1</v>
+      </c>
+      <c r="K3" s="42">
+        <v>1</v>
+      </c>
+      <c r="L3" s="41">
+        <v>1</v>
+      </c>
+      <c r="M3" s="42">
+        <v>1</v>
+      </c>
+      <c r="N3" s="42">
+        <v>1</v>
+      </c>
+      <c r="O3" s="41">
+        <v>1</v>
+      </c>
+      <c r="P3" s="42">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="42">
+        <v>1</v>
+      </c>
+      <c r="R3" s="41">
+        <v>1</v>
+      </c>
+      <c r="S3" s="42">
+        <v>1</v>
+      </c>
+      <c r="T3" s="42">
+        <v>1</v>
+      </c>
+      <c r="U3" s="41">
+        <v>1</v>
+      </c>
+      <c r="V3" s="42">
+        <v>1</v>
+      </c>
+      <c r="W3" s="42">
+        <v>1</v>
+      </c>
+      <c r="X3" s="42">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="41">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="42">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="42">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="41">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="42">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="42">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="41">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="42">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="42">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="42">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="42">
+        <v>1</v>
+      </c>
+      <c r="AK3" s="42">
+        <v>1</v>
+      </c>
+      <c r="AL3" s="41">
+        <v>1</v>
+      </c>
+      <c r="AM3" s="42">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="42">
+        <v>1</v>
+      </c>
+      <c r="AO3" s="41">
+        <v>1</v>
+      </c>
+      <c r="AP3" s="42">
+        <v>1</v>
+      </c>
+      <c r="AQ3" s="42">
+        <v>1</v>
+      </c>
+      <c r="AR3" s="41">
+        <v>1</v>
+      </c>
+      <c r="AS3" s="42">
+        <v>1</v>
+      </c>
+      <c r="AT3" s="42">
+        <v>1</v>
+      </c>
+      <c r="AU3" s="41">
+        <v>1</v>
+      </c>
+      <c r="AV3" s="42">
+        <v>1</v>
+      </c>
+      <c r="AW3" s="42">
+        <v>1</v>
+      </c>
+      <c r="AX3" s="42">
+        <v>1</v>
+      </c>
+      <c r="AY3" s="41">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="42">
+        <v>1</v>
+      </c>
+      <c r="BA3" s="42">
         <v>1</v>
       </c>
       <c r="FM3" s="15"/>
@@ -9820,162 +9795,162 @@
     </row>
     <row r="4" spans="1:532">
       <c r="A4" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="B4" s="42">
-        <v>1</v>
-      </c>
-      <c r="C4" s="43">
-        <v>1</v>
-      </c>
-      <c r="D4" s="43">
-        <v>1</v>
-      </c>
-      <c r="E4" s="42">
-        <v>1</v>
-      </c>
-      <c r="F4" s="43">
-        <v>1</v>
-      </c>
-      <c r="G4" s="43">
-        <v>1</v>
-      </c>
-      <c r="H4" s="42">
-        <v>1</v>
-      </c>
-      <c r="I4" s="43">
-        <v>1</v>
-      </c>
-      <c r="J4" s="43">
-        <v>1</v>
-      </c>
-      <c r="K4" s="43">
-        <v>1</v>
-      </c>
-      <c r="L4" s="42">
-        <v>1</v>
-      </c>
-      <c r="M4" s="43">
-        <v>1</v>
-      </c>
-      <c r="N4" s="43">
-        <v>1</v>
-      </c>
-      <c r="O4" s="42">
-        <v>1</v>
-      </c>
-      <c r="P4" s="43">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="43">
-        <v>1</v>
-      </c>
-      <c r="R4" s="42">
-        <v>1</v>
-      </c>
-      <c r="S4" s="43">
-        <v>1</v>
-      </c>
-      <c r="T4" s="43">
-        <v>1</v>
-      </c>
-      <c r="U4" s="42">
-        <v>1</v>
-      </c>
-      <c r="V4" s="43">
-        <v>1</v>
-      </c>
-      <c r="W4" s="43">
-        <v>1</v>
-      </c>
-      <c r="X4" s="43">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="42">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="43">
-        <v>1</v>
-      </c>
-      <c r="AA4" s="43">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="42">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="43">
-        <v>1</v>
-      </c>
-      <c r="AD4" s="43">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="42">
-        <v>1</v>
-      </c>
-      <c r="AF4" s="43">
-        <v>1</v>
-      </c>
-      <c r="AG4" s="43">
-        <v>1</v>
-      </c>
-      <c r="AH4" s="42">
-        <v>1</v>
-      </c>
-      <c r="AI4" s="43">
-        <v>1</v>
-      </c>
-      <c r="AJ4" s="43">
-        <v>1</v>
-      </c>
-      <c r="AK4" s="43">
-        <v>1</v>
-      </c>
-      <c r="AL4" s="42">
-        <v>1</v>
-      </c>
-      <c r="AM4" s="43">
-        <v>1</v>
-      </c>
-      <c r="AN4" s="43">
-        <v>1</v>
-      </c>
-      <c r="AO4" s="42">
-        <v>1</v>
-      </c>
-      <c r="AP4" s="43">
-        <v>1</v>
-      </c>
-      <c r="AQ4" s="43">
-        <v>1</v>
-      </c>
-      <c r="AR4" s="42">
-        <v>1</v>
-      </c>
-      <c r="AS4" s="43">
-        <v>1</v>
-      </c>
-      <c r="AT4" s="43">
-        <v>1</v>
-      </c>
-      <c r="AU4" s="42">
-        <v>1</v>
-      </c>
-      <c r="AV4" s="43">
-        <v>1</v>
-      </c>
-      <c r="AW4" s="43">
-        <v>1</v>
-      </c>
-      <c r="AX4" s="43">
-        <v>1</v>
-      </c>
-      <c r="AY4" s="42">
-        <v>1</v>
-      </c>
-      <c r="AZ4" s="43">
-        <v>1</v>
-      </c>
-      <c r="BA4" s="43">
+        <v>113</v>
+      </c>
+      <c r="B4" s="41">
+        <v>1</v>
+      </c>
+      <c r="C4" s="42">
+        <v>1</v>
+      </c>
+      <c r="D4" s="42">
+        <v>1</v>
+      </c>
+      <c r="E4" s="41">
+        <v>1</v>
+      </c>
+      <c r="F4" s="42">
+        <v>1</v>
+      </c>
+      <c r="G4" s="42">
+        <v>1</v>
+      </c>
+      <c r="H4" s="41">
+        <v>1</v>
+      </c>
+      <c r="I4" s="42">
+        <v>1</v>
+      </c>
+      <c r="J4" s="42">
+        <v>1</v>
+      </c>
+      <c r="K4" s="42">
+        <v>1</v>
+      </c>
+      <c r="L4" s="41">
+        <v>1</v>
+      </c>
+      <c r="M4" s="42">
+        <v>1</v>
+      </c>
+      <c r="N4" s="42">
+        <v>1</v>
+      </c>
+      <c r="O4" s="41">
+        <v>1</v>
+      </c>
+      <c r="P4" s="42">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="42">
+        <v>1</v>
+      </c>
+      <c r="R4" s="41">
+        <v>1</v>
+      </c>
+      <c r="S4" s="42">
+        <v>1</v>
+      </c>
+      <c r="T4" s="42">
+        <v>1</v>
+      </c>
+      <c r="U4" s="41">
+        <v>1</v>
+      </c>
+      <c r="V4" s="42">
+        <v>1</v>
+      </c>
+      <c r="W4" s="42">
+        <v>1</v>
+      </c>
+      <c r="X4" s="42">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="41">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="42">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="42">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="41">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="42">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="42">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="41">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="42">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="42">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="42">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="42">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="42">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="41">
+        <v>1</v>
+      </c>
+      <c r="AM4" s="42">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="42">
+        <v>1</v>
+      </c>
+      <c r="AO4" s="41">
+        <v>1</v>
+      </c>
+      <c r="AP4" s="42">
+        <v>1</v>
+      </c>
+      <c r="AQ4" s="42">
+        <v>1</v>
+      </c>
+      <c r="AR4" s="41">
+        <v>1</v>
+      </c>
+      <c r="AS4" s="42">
+        <v>1</v>
+      </c>
+      <c r="AT4" s="42">
+        <v>1</v>
+      </c>
+      <c r="AU4" s="41">
+        <v>1</v>
+      </c>
+      <c r="AV4" s="42">
+        <v>1</v>
+      </c>
+      <c r="AW4" s="42">
+        <v>1</v>
+      </c>
+      <c r="AX4" s="42">
+        <v>1</v>
+      </c>
+      <c r="AY4" s="41">
+        <v>1</v>
+      </c>
+      <c r="AZ4" s="42">
+        <v>1</v>
+      </c>
+      <c r="BA4" s="42">
         <v>1</v>
       </c>
       <c r="FM4" s="15"/>
@@ -10015,19 +9990,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="43" t="s">
         <v>44</v>
       </c>
       <c r="F1" s="15"/>
@@ -10035,31 +10010,31 @@
       <c r="H1" s="15"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44" t="s">
+      <c r="A2" s="43"/>
+      <c r="B2" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" s="43" t="s">
         <v>123</v>
-      </c>
-      <c r="D2" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="E2" s="44" t="s">
-        <v>125</v>
       </c>
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="44" t="s">
         <v>48</v>
       </c>
       <c r="D3" s="15"/>
@@ -10069,12 +10044,12 @@
       <c r="H3" s="15"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="45"/>
+      <c r="A4" s="44"/>
       <c r="B4" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" s="45" t="s">
-        <v>126</v>
+        <v>96</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>124</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
@@ -10083,12 +10058,12 @@
       <c r="H4" s="15"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="45"/>
+      <c r="A5" s="44"/>
       <c r="B5" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C5" s="45" t="s">
-        <v>135</v>
+        <v>134</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>133</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
@@ -10097,12 +10072,12 @@
       <c r="H5" s="15"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="45"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C6" s="45" t="s">
-        <v>133</v>
+        <v>97</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>131</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
@@ -10111,12 +10086,12 @@
       <c r="H6" s="15"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="45"/>
-      <c r="B7" s="45" t="s">
+      <c r="A7" s="44"/>
+      <c r="B7" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="44" t="s">
         <v>132</v>
-      </c>
-      <c r="C7" s="45" t="s">
-        <v>134</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
@@ -10125,9 +10100,9 @@
       <c r="H7" s="15"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="45"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
+      <c r="A8" s="44"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
@@ -10135,9 +10110,9 @@
       <c r="H8" s="15"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="45"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
@@ -10145,9 +10120,9 @@
       <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="45"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
@@ -10155,9 +10130,9 @@
       <c r="H10" s="15"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="45"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
+      <c r="A11" s="44"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
@@ -10165,9 +10140,9 @@
       <c r="H11" s="15"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="45"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
+      <c r="A12" s="44"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
@@ -10175,9 +10150,9 @@
       <c r="H12" s="15"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="45"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
@@ -10185,9 +10160,9 @@
       <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="45"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
+      <c r="A14" s="44"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
@@ -10195,9 +10170,9 @@
       <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="45"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
@@ -10205,9 +10180,9 @@
       <c r="H15" s="15"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="45"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
@@ -10215,9 +10190,9 @@
       <c r="H16" s="15"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="45"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
@@ -10225,9 +10200,9 @@
       <c r="H17" s="15"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="45"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
       <c r="F18" s="15"/>
@@ -10235,9 +10210,9 @@
       <c r="H18" s="15"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="45"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
+      <c r="A19" s="44"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
@@ -10245,9 +10220,9 @@
       <c r="H19" s="15"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="45"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
@@ -10255,9 +10230,9 @@
       <c r="H20" s="15"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="45"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
@@ -10265,9 +10240,9 @@
       <c r="H21" s="15"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="45"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
+      <c r="A22" s="44"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
       <c r="F22" s="15"/>
@@ -10275,9 +10250,9 @@
       <c r="H22" s="15"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="45"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
+      <c r="A23" s="44"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
       <c r="F23" s="15"/>
@@ -10285,9 +10260,9 @@
       <c r="H23" s="15"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="45"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
@@ -10295,9 +10270,9 @@
       <c r="H24" s="15"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="45"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
@@ -10305,9 +10280,9 @@
       <c r="H25" s="15"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="45"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
+      <c r="A26" s="44"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
       <c r="D26" s="15"/>
       <c r="E26" s="15"/>
       <c r="F26" s="15"/>
@@ -10315,9 +10290,9 @@
       <c r="H26" s="15"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="45"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="45"/>
+      <c r="A27" s="44"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
@@ -10325,9 +10300,9 @@
       <c r="H27" s="15"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="45"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="45"/>
+      <c r="A28" s="44"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
       <c r="D28" s="15"/>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
@@ -10335,9 +10310,9 @@
       <c r="H28" s="15"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="45"/>
-      <c r="B29" s="45"/>
-      <c r="C29" s="45"/>
+      <c r="A29" s="44"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
       <c r="D29" s="15"/>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
@@ -10345,9 +10320,9 @@
       <c r="H29" s="15"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="45"/>
-      <c r="B30" s="45"/>
-      <c r="C30" s="45"/>
+      <c r="A30" s="44"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
       <c r="D30" s="15"/>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
@@ -10355,9 +10330,9 @@
       <c r="H30" s="15"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="45"/>
-      <c r="B31" s="45"/>
-      <c r="C31" s="45"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
@@ -10365,9 +10340,9 @@
       <c r="H31" s="15"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="45"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
+      <c r="A32" s="44"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="44"/>
       <c r="D32" s="15"/>
       <c r="E32" s="15"/>
       <c r="F32" s="15"/>
@@ -10375,9 +10350,9 @@
       <c r="H32" s="15"/>
     </row>
     <row r="33" spans="1:49">
-      <c r="A33" s="45"/>
-      <c r="B33" s="45"/>
-      <c r="C33" s="45"/>
+      <c r="A33" s="44"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="44"/>
       <c r="D33" s="15"/>
       <c r="E33" s="15"/>
       <c r="F33" s="15"/>
@@ -10385,9 +10360,9 @@
       <c r="H33" s="15"/>
     </row>
     <row r="34" spans="1:49">
-      <c r="A34" s="45"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
+      <c r="A34" s="44"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
       <c r="D34" s="15"/>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
@@ -10395,9 +10370,9 @@
       <c r="H34" s="15"/>
     </row>
     <row r="35" spans="1:49">
-      <c r="A35" s="45"/>
-      <c r="B35" s="45"/>
-      <c r="C35" s="45"/>
+      <c r="A35" s="44"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="44"/>
       <c r="D35" s="15"/>
       <c r="E35" s="15"/>
       <c r="F35" s="15"/>
@@ -10405,9 +10380,9 @@
       <c r="H35" s="15"/>
     </row>
     <row r="36" spans="1:49">
-      <c r="A36" s="45"/>
-      <c r="B36" s="45"/>
-      <c r="C36" s="45"/>
+      <c r="A36" s="44"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="44"/>
       <c r="D36" s="15"/>
       <c r="E36" s="15"/>
       <c r="F36" s="15"/>
@@ -10415,9 +10390,9 @@
       <c r="H36" s="15"/>
     </row>
     <row r="37" spans="1:49">
-      <c r="A37" s="45"/>
-      <c r="B37" s="45"/>
-      <c r="C37" s="45"/>
+      <c r="A37" s="44"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="44"/>
       <c r="D37" s="15"/>
       <c r="E37" s="15"/>
       <c r="F37" s="15"/>
@@ -10425,9 +10400,9 @@
       <c r="H37" s="15"/>
     </row>
     <row r="38" spans="1:49">
-      <c r="A38" s="46"/>
-      <c r="B38" s="46"/>
-      <c r="C38" s="46"/>
+      <c r="A38" s="45"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="45"/>
       <c r="D38" s="15"/>
       <c r="E38" s="15"/>
       <c r="F38" s="15"/>
@@ -10435,16 +10410,16 @@
       <c r="H38" s="15"/>
     </row>
     <row r="39" spans="1:49">
-      <c r="A39" s="47" t="s">
+      <c r="A39" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="B39" s="47">
+      <c r="B39" s="46">
         <v>40</v>
       </c>
-      <c r="C39" s="47" t="s">
+      <c r="C39" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="D39" s="47" t="s">
+      <c r="D39" s="46" t="s">
         <v>57</v>
       </c>
       <c r="E39" s="15"/>
@@ -10453,50 +10428,50 @@
       <c r="H39" s="15"/>
     </row>
     <row r="40" spans="1:49">
-      <c r="A40" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="B40" s="42" t="s">
+      <c r="A40" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="B40" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="C40" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="D40" s="48" t="s">
+      <c r="C40" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="D40" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="E40" s="48" t="s">
+      <c r="E40" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="F40" s="48" t="s">
+      <c r="F40" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="G40" s="48" t="s">
+      <c r="G40" s="47" t="s">
         <v>55</v>
       </c>
       <c r="H40" s="33"/>
     </row>
     <row r="41" spans="1:49">
-      <c r="A41" s="42" t="s">
-        <v>127</v>
-      </c>
-      <c r="B41" s="42" t="s">
-        <v>113</v>
-      </c>
-      <c r="C41" s="42">
-        <v>1</v>
-      </c>
-      <c r="D41" s="42" t="s">
+      <c r="A41" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="B41" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="C41" s="41">
+        <v>1</v>
+      </c>
+      <c r="D41" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="E41" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="F41" s="42" t="s">
+      <c r="E41" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="F41" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="G41" s="42" t="s">
-        <v>74</v>
+      <c r="G41" s="41" t="s">
+        <v>72</v>
       </c>
       <c r="H41" s="15"/>
       <c r="AW41" t="s">
@@ -10504,26 +10479,26 @@
       </c>
     </row>
     <row r="42" spans="1:49">
-      <c r="A42" s="42" t="s">
-        <v>128</v>
-      </c>
-      <c r="B42" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="C42" s="42">
-        <v>1</v>
-      </c>
-      <c r="D42" s="42" t="s">
+      <c r="A42" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="B42" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="C42" s="41">
+        <v>1</v>
+      </c>
+      <c r="D42" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="E42" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="F42" s="42" t="s">
+      <c r="E42" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="F42" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="G42" s="42" t="s">
-        <v>74</v>
+      <c r="G42" s="41" t="s">
+        <v>72</v>
       </c>
       <c r="H42" s="15"/>
       <c r="AW42" t="s">
@@ -10531,183 +10506,183 @@
       </c>
     </row>
     <row r="43" spans="1:49">
-      <c r="A43" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="B43" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="C43" s="43">
-        <v>1</v>
-      </c>
-      <c r="D43" s="42" t="s">
+      <c r="A43" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="B43" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="C43" s="42">
+        <v>1</v>
+      </c>
+      <c r="D43" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="E43" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="F43" s="42" t="s">
+      <c r="E43" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="F43" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="G43" s="42" t="s">
-        <v>74</v>
+      <c r="G43" s="41" t="s">
+        <v>72</v>
       </c>
       <c r="AW43" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:49">
-      <c r="A44" s="43"/>
-      <c r="B44" s="43"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="43"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="43"/>
+      <c r="A44" s="42"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
       <c r="AW44" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:49">
-      <c r="A45" s="43"/>
-      <c r="B45" s="43"/>
-      <c r="C45" s="43"/>
-      <c r="D45" s="43"/>
-      <c r="E45" s="43"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="43"/>
+      <c r="A45" s="42"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="42"/>
       <c r="AW45" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:49">
-      <c r="A46" s="43"/>
-      <c r="B46" s="43"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="43"/>
-      <c r="F46" s="43"/>
-      <c r="G46" s="43"/>
+      <c r="A46" s="42"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="42"/>
       <c r="AW46" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="47" spans="1:49">
-      <c r="A47" s="43"/>
-      <c r="B47" s="43"/>
-      <c r="C47" s="43"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="43"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="43"/>
+      <c r="A47" s="42"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="42"/>
       <c r="AW47" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="48" spans="1:49">
-      <c r="A48" s="43"/>
-      <c r="B48" s="43"/>
-      <c r="C48" s="43"/>
-      <c r="D48" s="43"/>
-      <c r="E48" s="43"/>
-      <c r="F48" s="43"/>
-      <c r="G48" s="43"/>
+      <c r="A48" s="42"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="42"/>
+      <c r="G48" s="42"/>
       <c r="AW48" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="49" spans="1:49">
-      <c r="A49" s="43"/>
-      <c r="B49" s="43"/>
-      <c r="C49" s="43"/>
-      <c r="D49" s="43"/>
-      <c r="E49" s="43"/>
-      <c r="F49" s="43"/>
-      <c r="G49" s="43"/>
+      <c r="A49" s="42"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="42"/>
+      <c r="G49" s="42"/>
       <c r="AW49" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="50" spans="1:49">
-      <c r="A50" s="43"/>
-      <c r="B50" s="43"/>
-      <c r="C50" s="43"/>
-      <c r="D50" s="43"/>
-      <c r="E50" s="43"/>
-      <c r="F50" s="43"/>
-      <c r="G50" s="43"/>
+      <c r="A50" s="42"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="42"/>
       <c r="AW50" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="51" spans="1:49">
-      <c r="A51" s="43"/>
-      <c r="B51" s="43"/>
-      <c r="C51" s="43"/>
-      <c r="D51" s="43"/>
-      <c r="E51" s="43"/>
-      <c r="F51" s="43"/>
-      <c r="G51" s="43"/>
+      <c r="A51" s="42"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="42"/>
       <c r="AW51" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="52" spans="1:49">
-      <c r="A52" s="43"/>
-      <c r="B52" s="43"/>
-      <c r="C52" s="43"/>
-      <c r="D52" s="43"/>
-      <c r="E52" s="43"/>
-      <c r="F52" s="43"/>
-      <c r="G52" s="43"/>
+      <c r="A52" s="42"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="42"/>
       <c r="AW52" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="53" spans="1:49">
-      <c r="A53" s="43"/>
-      <c r="B53" s="43"/>
-      <c r="C53" s="43"/>
-      <c r="D53" s="43"/>
-      <c r="E53" s="43"/>
-      <c r="F53" s="43"/>
-      <c r="G53" s="43"/>
+      <c r="A53" s="42"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="42"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="42"/>
       <c r="AW53" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="54" spans="1:49">
-      <c r="A54" s="43"/>
-      <c r="B54" s="43"/>
-      <c r="C54" s="43"/>
-      <c r="D54" s="43"/>
-      <c r="E54" s="43"/>
-      <c r="F54" s="43"/>
-      <c r="G54" s="43"/>
+      <c r="A54" s="42"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="42"/>
+      <c r="G54" s="42"/>
       <c r="AW54" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="55" spans="1:49">
-      <c r="A55" s="43"/>
-      <c r="B55" s="43"/>
-      <c r="C55" s="43"/>
-      <c r="D55" s="43"/>
-      <c r="E55" s="43"/>
-      <c r="F55" s="43"/>
-      <c r="G55" s="43"/>
+      <c r="A55" s="42"/>
+      <c r="B55" s="42"/>
+      <c r="C55" s="42"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="42"/>
+      <c r="F55" s="42"/>
+      <c r="G55" s="42"/>
       <c r="AW55" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="56" spans="1:49">
-      <c r="A56" s="43"/>
-      <c r="B56" s="43"/>
-      <c r="C56" s="43"/>
-      <c r="D56" s="43"/>
-      <c r="E56" s="43"/>
-      <c r="F56" s="43"/>
-      <c r="G56" s="43"/>
+      <c r="A56" s="42"/>
+      <c r="B56" s="42"/>
+      <c r="C56" s="42"/>
+      <c r="D56" s="42"/>
+      <c r="E56" s="42"/>
+      <c r="F56" s="42"/>
+      <c r="G56" s="42"/>
       <c r="AW56" t="s">
         <v>29</v>
       </c>
